--- a/OTHERS/DOC/タスク一覧.xlsx
+++ b/OTHERS/DOC/タスク一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NO</t>
   </si>
@@ -30,40 +30,24 @@
     <t>ステータス</t>
   </si>
   <si>
-    <t>球持ち</t>
-  </si>
-  <si>
     <t>内容</t>
   </si>
   <si>
     <t>備考</t>
   </si>
   <si>
-    <t>劉</t>
+    <t>データ導入
+MST_入庫仕入推奨数量情報</t>
   </si>
   <si>
-    <t>李</t>
+    <t>在庫情報管理
+検索条件追加</t>
   </si>
   <si>
-    <t>RES_注文情報の蓄積方法の改善</t>
+    <t>収入支出情報管理</t>
   </si>
   <si>
-    <t>未対応</t>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>注文以外のものは別のテーブルに蓄積するように修正
-①RES_注文情報に蓄積するときに、注文以外のものを除外する
-②注文以外のものを別のテーブルに蓄積する</t>
-  </si>
-  <si>
-    <t>excute_14_r2();
-excute_15_r3();</t>
-  </si>
-  <si>
-    <t>対応中</t>
+    <t>納品仕入ファイルの変色を追加</t>
   </si>
 </sst>
 </file>
@@ -72,11 +56,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +70,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -483,9 +460,18 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -498,18 +484,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -618,48 +595,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,101 +649,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,23 +753,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1142,25 +1113,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:I20"/>
+  <dimension ref="B4:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="7" width="4.375" customWidth="1"/>
-    <col min="8" max="8" width="70.375" customWidth="1"/>
-    <col min="9" max="9" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="70.375" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,224 +1143,173 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="63" customHeight="1" spans="2:7">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="2:7">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" ht="60" customHeight="1" spans="2:7">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="63" customHeight="1" spans="2:9">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:7">
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
-        <v>44913</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="69" customHeight="1" spans="2:9">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>44913</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:9">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:9">
-      <c r="B9" s="7">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:9">
-      <c r="B10" s="7">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:7">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:9">
-      <c r="B11" s="7">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:7">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:9">
-      <c r="B12" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:7">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:9">
-      <c r="B13" s="7">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:7">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:9">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:9">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:9">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:9">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:9">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:9">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:9">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:7">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:7">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:7">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:7">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:7">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:7">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:7">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="6">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/OTHERS/DOC/タスク一覧.xlsx
+++ b/OTHERS/DOC/タスク一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="17085" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>機能</t>
+  </si>
+  <si>
     <t>タイトル</t>
   </si>
   <si>
@@ -36,29 +39,97 @@
     <t>備考</t>
   </si>
   <si>
-    <t>データ導入
-MST_入庫仕入推奨数量情報</t>
-  </si>
-  <si>
-    <t>在庫情報管理
-検索条件追加</t>
-  </si>
-  <si>
-    <t>収入支出情報管理</t>
-  </si>
-  <si>
-    <t>納品仕入ファイルの変色を追加</t>
+    <t>店舗選択画面</t>
+  </si>
+  <si>
+    <t>店铺选择页面背景色</t>
+  </si>
+  <si>
+    <t>データ導入</t>
+  </si>
+  <si>
+    <t>变色逻辑</t>
+  </si>
+  <si>
+    <t>マスタ情報管理</t>
+  </si>
+  <si>
+    <t>不同商品管理番号之间用实线分割</t>
+  </si>
+  <si>
+    <t>新商品根据商品名称设定信息</t>
+  </si>
+  <si>
+    <t>增加供货商项目，仕入停止项目</t>
+  </si>
+  <si>
+    <t>在庫情報管理</t>
+  </si>
+  <si>
+    <t>贩卖数量再改改</t>
+  </si>
+  <si>
+    <t>检索条件追加，数量+区分值</t>
+  </si>
+  <si>
+    <t>LOCAL在庫 居右</t>
+  </si>
+  <si>
+    <t>数量表示方法 0 -</t>
+  </si>
+  <si>
+    <t>亲子表示</t>
+  </si>
+  <si>
+    <t>納品情報管理</t>
+  </si>
+  <si>
+    <t>列宽度调整</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>仕入情報管理</t>
+  </si>
+  <si>
+    <t>供应商出力</t>
+  </si>
+  <si>
+    <t>発送</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>代行発送</t>
+  </si>
+  <si>
+    <t>商品スキャン</t>
+  </si>
+  <si>
+    <t>コスト情報管理</t>
+  </si>
+  <si>
+    <t>ラベル印刷</t>
+  </si>
+  <si>
+    <t>売上管理</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd"/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,12 +292,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -595,13 +678,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,16 +693,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,10 +714,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,28 +738,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -685,22 +768,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,19 +786,19 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,30 +807,57 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -824,6 +928,512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="762000"/>
+          <a:ext cx="1952625" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="1314450"/>
+          <a:ext cx="2447925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="990600"/>
+          <a:ext cx="12944475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="1323975"/>
+          <a:ext cx="1343025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="1819275"/>
+          <a:ext cx="3000375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="1828800"/>
+          <a:ext cx="742950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="2286000"/>
+          <a:ext cx="2124075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="2695575"/>
+          <a:ext cx="2124075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="3286125"/>
+          <a:ext cx="1885950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="3810000"/>
+          <a:ext cx="5181600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1113,203 +1723,413 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:G20"/>
+  <dimension ref="B4:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B21" sqref="B6:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="70.375" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="70.375" customWidth="1"/>
+    <col min="8" max="8" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="63" customHeight="1" spans="2:7">
-      <c r="B6" s="5">
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:8">
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:8">
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:8">
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:8">
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:8">
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:8">
+      <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" ht="69" customHeight="1" spans="2:7">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:8">
+      <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" ht="60" customHeight="1" spans="2:7">
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:8">
+      <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:7">
-      <c r="B9" s="5">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:8">
+      <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:7">
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:7">
-      <c r="B11" s="5">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:7">
-      <c r="B12" s="5">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:7">
-      <c r="B13" s="5">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:7">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:7">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:7">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:7">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:7">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:7">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:7">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:8">
+      <c r="B15" s="12">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:8">
+      <c r="B16" s="12">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:8">
+      <c r="B17" s="12">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:8">
+      <c r="B18" s="12">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:8">
+      <c r="B19" s="12">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:8">
+      <c r="B20" s="12">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:8">
+      <c r="B21" s="12">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="2:8">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="2:8">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="2:8">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="2:8">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="2:8">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="2:8">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="2:8">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="2:8">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="2:8">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="2:8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="2:8">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="2:8">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1320,17 +2140,924 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:BX34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16381" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:46">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="AT2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="4:76">
+      <c r="D3" s="1">
+        <v>45005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45006</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45007</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45008</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45009</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45010</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45011</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45012</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45013</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45014</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45015</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45016</v>
+      </c>
+      <c r="P3" s="2">
+        <v>45017</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>45018</v>
+      </c>
+      <c r="R3" s="1">
+        <v>45019</v>
+      </c>
+      <c r="S3" s="1">
+        <v>45020</v>
+      </c>
+      <c r="T3" s="1">
+        <v>45021</v>
+      </c>
+      <c r="U3" s="1">
+        <v>45022</v>
+      </c>
+      <c r="V3" s="1">
+        <v>45023</v>
+      </c>
+      <c r="W3" s="2">
+        <v>45024</v>
+      </c>
+      <c r="X3" s="2">
+        <v>45025</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>45026</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>45027</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>45028</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>45029</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>45030</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>45031</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>45032</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>45034</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>45035</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>45036</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>45037</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>45038</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>45039</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>45040</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>45041</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>45042</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>45043</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>45045</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>45046</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>45047</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>45048</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>45049</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>45050</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>45051</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>45052</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>45053</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>45054</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>45055</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>45056</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>45057</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>45058</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>45059</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>45060</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>45061</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>45062</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>45063</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>45064</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>45065</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>45066</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>45067</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>45068</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>45069</v>
+      </c>
+      <c r="BQ3" s="4">
+        <v>45070</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>45071</v>
+      </c>
+      <c r="BS3" s="4">
+        <v>45072</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>45073</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>45074</v>
+      </c>
+      <c r="BV3" s="4">
+        <v>45075</v>
+      </c>
+      <c r="BW3" s="4">
+        <v>45076</v>
+      </c>
+      <c r="BX3" s="4">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="4" spans="9:73">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+    </row>
+    <row r="5" spans="9:73">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+    </row>
+    <row r="6" spans="9:73">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+    </row>
+    <row r="7" spans="9:73">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+    </row>
+    <row r="8" spans="2:73">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+    </row>
+    <row r="9" spans="9:73">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+    </row>
+    <row r="10" spans="9:73">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+    </row>
+    <row r="11" spans="2:73">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+    </row>
+    <row r="12" spans="9:73">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+    </row>
+    <row r="13" spans="9:73">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+    </row>
+    <row r="14" spans="2:73">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
+    </row>
+    <row r="15" spans="9:73">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+    </row>
+    <row r="16" spans="9:73">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+    </row>
+    <row r="17" spans="2:73">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+    </row>
+    <row r="18" spans="9:73">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+    </row>
+    <row r="19" spans="9:73">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+    </row>
+    <row r="20" spans="2:73">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+    </row>
+    <row r="21" spans="9:73">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+    </row>
+    <row r="22" spans="9:73">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+    </row>
+    <row r="23" spans="2:59">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+    </row>
+    <row r="24" spans="9:59">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+    </row>
+    <row r="25" spans="9:59">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+    </row>
+    <row r="26" spans="2:59">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+    </row>
+    <row r="27" spans="9:59">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+    </row>
+    <row r="28" spans="9:59">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+    </row>
+    <row r="29" spans="9:59">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+    </row>
+    <row r="30" spans="9:59">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+    </row>
+    <row r="31" spans="9:59">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+    </row>
+    <row r="32" spans="9:59">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+    </row>
+    <row r="33" spans="9:59">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+    </row>
+    <row r="34" spans="9:59">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/OTHERS/DOC/タスク一覧.xlsx
+++ b/OTHERS/DOC/タスク一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17085" windowHeight="12300"/>
+    <workbookView windowWidth="28125" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -27,9 +27,6 @@
     <t>タイトル</t>
   </si>
   <si>
-    <t>期限</t>
-  </si>
-  <si>
     <t>ステータス</t>
   </si>
   <si>
@@ -39,22 +36,30 @@
     <t>備考</t>
   </si>
   <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>用户ID只允许输入半角文字</t>
+  </si>
+  <si>
     <t>店舗選択画面</t>
   </si>
   <si>
-    <t>店铺选择页面背景色</t>
+    <t>页面下半部分背景色</t>
   </si>
   <si>
     <t>データ導入</t>
   </si>
   <si>
-    <t>变色逻辑</t>
+    <t>1，2，3 变色逻辑
+1，2，3，5，6，7
+以外的暂时先变灰</t>
   </si>
   <si>
     <t>マスタ情報管理</t>
   </si>
   <si>
-    <t>不同商品管理番号之间用实线分割</t>
+    <t>暂定商品</t>
   </si>
   <si>
     <t>新商品根据商品名称设定信息</t>
@@ -66,19 +71,10 @@
     <t>在庫情報管理</t>
   </si>
   <si>
-    <t>贩卖数量再改改</t>
-  </si>
-  <si>
     <t>检索条件追加，数量+区分值</t>
   </si>
   <si>
     <t>LOCAL在庫 居右</t>
-  </si>
-  <si>
-    <t>数量表示方法 0 -</t>
-  </si>
-  <si>
-    <t>亲子表示</t>
   </si>
   <si>
     <t>納品情報管理</t>
@@ -126,10 +122,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="dd"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -292,18 +288,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,31 +668,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,52 +704,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -768,16 +758,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,41 +782,38 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,25 +829,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -866,8 +847,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1723,413 +1704,337 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:H33"/>
+  <dimension ref="B4:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B6:D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="70.375" customWidth="1"/>
-    <col min="8" max="8" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="70.375" customWidth="1"/>
+    <col min="7" max="7" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:7">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="2:8">
-      <c r="B6" s="12">
+      <c r="D6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="2:7">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="55" customHeight="1" spans="2:7">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:7">
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:7">
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:7">
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:7">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="2:7">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:8">
-      <c r="B7" s="12">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="2:8">
-      <c r="B8" s="12">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="2:7">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:8">
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="2:7">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:8">
-      <c r="B10" s="12">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:7">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:8">
-      <c r="B11" s="12">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:7">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:7">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:8">
-      <c r="B12" s="12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:8">
-      <c r="B13" s="12">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:8">
-      <c r="B14" s="12">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:8">
-      <c r="B15" s="12">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:8">
-      <c r="B16" s="12">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:8">
-      <c r="B17" s="12">
-        <v>12</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:8">
-      <c r="B18" s="12">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:8">
-      <c r="B19" s="12">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:8">
-      <c r="B20" s="12">
-        <v>15</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:8">
-      <c r="B21" s="12">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="2:8">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="2:8">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="2:8">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="2:8">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="2:8">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="2:8">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="2:8">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="2:8">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="2:8">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:8">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="2:8">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="2:8">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:7">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:7">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:7">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="2:7">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="2:7">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="2:7">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="2:7">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="2:7">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="2:7">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="2:7">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="2:7">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="2:7">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2396,14 +2301,14 @@
       <c r="AL4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
     </row>
     <row r="5" spans="9:73">
       <c r="I5" s="3"/>
@@ -2418,14 +2323,14 @@
       <c r="AL5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
     </row>
     <row r="6" spans="9:73">
       <c r="I6" s="3"/>
@@ -2440,14 +2345,14 @@
       <c r="AL6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
     </row>
     <row r="7" spans="9:73">
       <c r="I7" s="3"/>
@@ -2462,18 +2367,18 @@
       <c r="AL7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
     </row>
     <row r="8" spans="2:73">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2482,7 +2387,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -2490,14 +2395,14 @@
       <c r="AL8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="5"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
     </row>
     <row r="9" spans="9:73">
       <c r="I9" s="3"/>
@@ -2512,14 +2417,14 @@
       <c r="AL9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="5"/>
-      <c r="BM9" s="5"/>
-      <c r="BN9" s="5"/>
-      <c r="BT9" s="5"/>
-      <c r="BU9" s="5"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
     </row>
     <row r="10" spans="9:73">
       <c r="I10" s="3"/>
@@ -2534,18 +2439,18 @@
       <c r="AL10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BM10" s="5"/>
-      <c r="BN10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="5"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
     </row>
     <row r="11" spans="2:73">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2554,7 +2459,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -2562,14 +2467,14 @@
       <c r="AL11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BM11" s="5"/>
-      <c r="BN11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="5"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
     </row>
     <row r="12" spans="9:73">
       <c r="I12" s="3"/>
@@ -2584,14 +2489,14 @@
       <c r="AL12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BM12" s="5"/>
-      <c r="BN12" s="5"/>
-      <c r="BT12" s="5"/>
-      <c r="BU12" s="5"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
     </row>
     <row r="13" spans="9:73">
       <c r="I13" s="3"/>
@@ -2606,18 +2511,18 @@
       <c r="AL13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BM13" s="5"/>
-      <c r="BN13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
     </row>
     <row r="14" spans="2:73">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2630,18 +2535,18 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="5"/>
-      <c r="BT14" s="5"/>
-      <c r="BU14" s="5"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
     </row>
     <row r="15" spans="9:73">
       <c r="I15" s="3"/>
@@ -2656,14 +2561,14 @@
       <c r="AL15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BM15" s="5"/>
-      <c r="BN15" s="5"/>
-      <c r="BT15" s="5"/>
-      <c r="BU15" s="5"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
     </row>
     <row r="16" spans="9:73">
       <c r="I16" s="3"/>
@@ -2677,22 +2582,22 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BM16" s="5"/>
-      <c r="BN16" s="5"/>
-      <c r="BT16" s="5"/>
-      <c r="BU16" s="5"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
     </row>
     <row r="17" spans="2:73">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2706,14 +2611,14 @@
       <c r="AL17" s="3"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BM17" s="5"/>
-      <c r="BN17" s="5"/>
-      <c r="BT17" s="5"/>
-      <c r="BU17" s="5"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
     </row>
     <row r="18" spans="9:73">
       <c r="I18" s="3"/>
@@ -2728,14 +2633,14 @@
       <c r="AL18" s="3"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BM18" s="5"/>
-      <c r="BN18" s="5"/>
-      <c r="BT18" s="5"/>
-      <c r="BU18" s="5"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
     </row>
     <row r="19" spans="9:73">
       <c r="I19" s="3"/>
@@ -2750,18 +2655,18 @@
       <c r="AL19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
-      <c r="BF19" s="5"/>
-      <c r="BG19" s="5"/>
-      <c r="BM19" s="5"/>
-      <c r="BN19" s="5"/>
-      <c r="BT19" s="5"/>
-      <c r="BU19" s="5"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
     </row>
     <row r="20" spans="2:73">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2774,18 +2679,18 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BM20" s="5"/>
-      <c r="BN20" s="5"/>
-      <c r="BT20" s="5"/>
-      <c r="BU20" s="5"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
     </row>
     <row r="21" spans="9:73">
       <c r="I21" s="3"/>
@@ -2800,14 +2705,14 @@
       <c r="AL21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BM21" s="5"/>
-      <c r="BN21" s="5"/>
-      <c r="BT21" s="5"/>
-      <c r="BU21" s="5"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
     </row>
     <row r="22" spans="9:73">
       <c r="I22" s="3"/>
@@ -2822,18 +2727,18 @@
       <c r="AL22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BM22" s="5"/>
-      <c r="BN22" s="5"/>
-      <c r="BT22" s="5"/>
-      <c r="BU22" s="5"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
     </row>
     <row r="23" spans="2:59">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2847,10 +2752,10 @@
       <c r="AL23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
     </row>
     <row r="24" spans="9:59">
       <c r="I24" s="3"/>
@@ -2865,10 +2770,10 @@
       <c r="AL24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
     </row>
     <row r="25" spans="9:59">
       <c r="I25" s="3"/>
@@ -2883,14 +2788,14 @@
       <c r="AL25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
     </row>
     <row r="26" spans="2:59">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2904,10 +2809,10 @@
       <c r="AL26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
     </row>
     <row r="27" spans="9:59">
       <c r="I27" s="3"/>
@@ -2922,10 +2827,10 @@
       <c r="AL27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
     </row>
     <row r="28" spans="9:59">
       <c r="I28" s="3"/>
@@ -2940,10 +2845,10 @@
       <c r="AL28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
     </row>
     <row r="29" spans="9:59">
       <c r="I29" s="3"/>
@@ -2958,10 +2863,10 @@
       <c r="AL29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
     </row>
     <row r="30" spans="9:59">
       <c r="I30" s="3"/>
@@ -2976,10 +2881,10 @@
       <c r="AL30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BF30" s="5"/>
-      <c r="BG30" s="5"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
     </row>
     <row r="31" spans="9:59">
       <c r="I31" s="3"/>
@@ -2994,10 +2899,10 @@
       <c r="AL31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
     </row>
     <row r="32" spans="9:59">
       <c r="I32" s="3"/>
@@ -3012,10 +2917,10 @@
       <c r="AL32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
+      <c r="AY32" s="3"/>
+      <c r="AZ32" s="3"/>
+      <c r="BF32" s="3"/>
+      <c r="BG32" s="3"/>
     </row>
     <row r="33" spans="9:59">
       <c r="I33" s="3"/>
@@ -3030,10 +2935,10 @@
       <c r="AL33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
     </row>
     <row r="34" spans="9:59">
       <c r="I34" s="3"/>
@@ -3048,10 +2953,10 @@
       <c r="AL34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
